--- a/constituents on 2021-09-19.xlsx
+++ b/constituents on 2021-09-19.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" dateCompatibility="false"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
@@ -223,6 +223,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -310,14 +311,14 @@
   </sheetPr>
   <dimension ref="A1:C61"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A46" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B68" activeCellId="0" sqref="B68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="6.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="23.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="23.35"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="24.91"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="4" style="1" width="11.52"/>
   </cols>
